--- a/Datasets/Master-DATA-SET.xlsx
+++ b/Datasets/Master-DATA-SET.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FE056B-53DE-4D70-97F4-6152693B6561}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C939087-F1DD-4C10-9D24-6F55339FE569}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China" sheetId="1" r:id="rId1"/>
+    <sheet name="CountryID" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -464,7 +465,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -538,10 +539,10 @@
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -550,19 +551,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -580,7 +581,7 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,7 +602,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -610,13 +611,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -637,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -655,10 +656,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -943,9 +944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O120" sqref="O120"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24142,4 +24143,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7DC038-761B-448A-A7ED-5CBDE717DAEC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>